--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E184592-4B58-4342-BAE8-49561CA03D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD8FD1-0CC3-4AEE-B5D5-860A44BCB08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
   <si>
     <t>HOME MART ENTERPRISES</t>
   </si>
@@ -261,6 +261,21 @@
   </si>
   <si>
     <t>SEPTEMBER 2025</t>
+  </si>
+  <si>
+    <t>CARL'S VULCANIZING SHOP</t>
+  </si>
+  <si>
+    <t>MINDA S. BALBUENA</t>
+  </si>
+  <si>
+    <t>POBLACION, SINDANGAN, ZAMBOANGA DEL NORTE</t>
+  </si>
+  <si>
+    <t>001457</t>
+  </si>
+  <si>
+    <t>139-892-671-00000</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3242,25 +3257,37 @@
         <v>2</v>
       </c>
       <c r="C40" s="19">
-        <v>45850</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
+        <v>46000</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="21">
+        <v>200</v>
+      </c>
       <c r="K40" s="21">
         <f t="shared" ref="K40:K59" si="7">M40*12</f>
-        <v>0</v>
+        <v>21.428571428571431</v>
       </c>
       <c r="L40" s="27">
         <f>I40-K40</f>
-        <v>0</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="M40" s="33">
         <f t="shared" ref="M40:M59" si="8">I40/112</f>
-        <v>0</v>
+        <v>1.7857142857142858</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -3758,19 +3785,19 @@
     <row r="65" spans="9:13" x14ac:dyDescent="0.25">
       <c r="I65" s="14">
         <f>SUM(I40:I64)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K65" s="14">
         <f>SUM(K40:K64)</f>
-        <v>0</v>
+        <v>21.428571428571431</v>
       </c>
       <c r="L65" s="14">
         <f>SUM(L40:L64)</f>
-        <v>0</v>
+        <v>178.57142857142856</v>
       </c>
       <c r="M65" s="36">
         <f>SUM(M40:M64)</f>
-        <v>0</v>
+        <v>1.7857142857142858</v>
       </c>
     </row>
   </sheetData>

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD8FD1-0CC3-4AEE-B5D5-860A44BCB08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75964993-25B1-4A36-A1F9-E3B9C7658587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>45882</v>
+        <v>45918</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
@@ -2375,26 +2375,26 @@
         <v>70</v>
       </c>
       <c r="G7" s="20">
-        <v>517807677</v>
+        <v>517917296</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
       <c r="I7" s="21">
-        <f>1286775-55029.33</f>
-        <v>1231745.67</v>
+        <f>1329003-54050.85</f>
+        <v>1274952.1499999999</v>
       </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>131972.75035714285</v>
+        <v>136602.01607142854</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>1099772.919642857</v>
+        <v>1138350.1339285714</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>10997.729196428571</v>
+        <v>11383.501339285713</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -3127,19 +3127,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1231745.67</v>
+        <v>1274952.1499999999</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>131972.75035714285</v>
+        <v>136602.01607142854</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1099772.919642857</v>
+        <v>1138350.1339285714</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>10997.729196428571</v>
+        <v>11383.501339285713</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75964993-25B1-4A36-A1F9-E3B9C7658587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54EC2C-4BB4-4477-B199-1C87102C5D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,7 +2408,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>45919</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2416,22 +2418,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>517921412</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3127,19 +3134,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1274952.1499999999</v>
+        <v>2571829.11</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>136602.01607142854</v>
+        <v>275553.11892857141</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1138350.1339285714</v>
+        <v>2296275.9910714282</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>11383.501339285713</v>
+        <v>22962.759910714281</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE54EC2C-4BB4-4477-B199-1C87102C5D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DEE3C6-106A-4270-888B-FC095120FD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2450,7 +2450,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>45920</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -2458,22 +2460,27 @@
       <c r="F9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>517925391</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f>1364882-130350.64</f>
+        <v>1234531.3600000001</v>
+      </c>
       <c r="K9" s="21">
         <f t="shared" ref="K9:K26" si="2">M9*12</f>
-        <v>0</v>
+        <v>132271.21714285715</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L26" si="3">I9-K9</f>
-        <v>0</v>
+        <v>1102260.142857143</v>
       </c>
       <c r="M9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11022.60142857143</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3134,19 +3141,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>2571829.11</v>
+        <v>3806360.4699999997</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>275553.11892857141</v>
+        <v>407824.33607142855</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>2296275.9910714282</v>
+        <v>3398536.1339285709</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>22962.759910714281</v>
+        <v>33985.361339285708</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DEE3C6-106A-4270-888B-FC095120FD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DACFA5-CE56-4FE2-AAB3-5DA642AAADA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,7 +2492,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19">
+        <v>45922</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2500,22 +2502,27 @@
       <c r="F10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>517928292</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>1379882-56984.04</f>
+        <v>1322897.96</v>
+      </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>141739.06714285712</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1181158.8928571427</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11811.588928571427</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3141,19 +3148,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>3806360.4699999997</v>
+        <v>5129258.43</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>407824.33607142855</v>
+        <v>549563.40321428562</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>3398536.1339285709</v>
+        <v>4579695.0267857136</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>33985.361339285708</v>
+        <v>45796.950267857137</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DACFA5-CE56-4FE2-AAB3-5DA642AAADA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79E93C-9D07-4D71-99FD-DA3EE20E0DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19">
+        <v>45923</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
@@ -2542,22 +2544,27 @@
       <c r="F11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>517931904</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f>1366132-56838.24</f>
+        <v>1309293.76</v>
+      </c>
       <c r="K11" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140281.47428571427</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1169012.2857142857</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11690.122857142856</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3148,19 +3155,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>5129258.43</v>
+        <v>6438552.1899999995</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>549563.40321428562</v>
+        <v>689844.87749999994</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>4579695.0267857136</v>
+        <v>5748707.3124999991</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>45796.950267857137</v>
+        <v>57487.073124999995</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79E93C-9D07-4D71-99FD-DA3EE20E0DB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C74D72-A52D-4093-86D6-1E6133C00524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,7 +2576,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19">
+        <v>45924</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2584,22 +2586,27 @@
       <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>517936275</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f>1330452-56255.04</f>
+        <v>1274196.96</v>
+      </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>136521.10285714286</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1137675.857142857</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11376.758571428571</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2611,7 +2618,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19">
+        <v>45924</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2619,22 +2628,27 @@
       <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>517936283</v>
+      </c>
       <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f>1283160-53990.4</f>
+        <v>1229169.6000000001</v>
+      </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>131696.74285714288</v>
       </c>
       <c r="L13" s="27">
         <f>I13-K13</f>
-        <v>0</v>
+        <v>1097472.8571428573</v>
       </c>
       <c r="M13" s="33">
         <f>I13/112</f>
-        <v>0</v>
+        <v>10974.728571428572</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2646,7 +2660,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19">
+        <v>45924</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2654,22 +2670,28 @@
       <c r="F14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <f>517935815</f>
+        <v>517935815</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38">
+        <f>1324098-53803.62</f>
+        <v>1270294.3799999999</v>
+      </c>
       <c r="K14" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>136102.96928571427</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1134191.4107142857</v>
       </c>
       <c r="M14" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11341.914107142857</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2681,7 +2703,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19">
+        <v>45924</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
@@ -2689,22 +2713,27 @@
       <c r="F15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>517935830</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f>1366356-56604.96</f>
+        <v>1309751.04</v>
+      </c>
       <c r="K15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>140330.46857142856</v>
       </c>
       <c r="L15" s="27">
         <f>I15-K15</f>
-        <v>0</v>
+        <v>1169420.5714285714</v>
       </c>
       <c r="M15" s="33">
         <f>I15/112</f>
-        <v>0</v>
+        <v>11694.205714285714</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3155,19 +3184,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>6438552.1899999995</v>
+        <v>11521964.169999998</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>689844.87749999994</v>
+        <v>1234496.1610714286</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>5748707.3124999991</v>
+        <v>10287468.008928571</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>57487.073124999995</v>
+        <v>102874.6800892857</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C74D72-A52D-4093-86D6-1E6133C00524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAE215-1815-4B1F-B596-43C3449A8EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16065" yWindow="2760" windowWidth="12735" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,7 +2745,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19">
+        <v>45925</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2753,22 +2755,27 @@
       <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>517939736</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <f>1264340-96409.05</f>
+        <v>1167930.95</v>
+      </c>
       <c r="K16" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>125135.45892857142</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1042795.4910714285</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10427.954910714285</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2780,7 +2787,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19">
+        <v>45925</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2788,22 +2797,27 @@
       <c r="F17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>517940283</v>
+      </c>
       <c r="H17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f>1320732-56255.04</f>
+        <v>1264476.96</v>
+      </c>
       <c r="K17" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135479.67428571428</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1128997.2857142857</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11289.972857142857</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3184,19 +3198,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>11521964.169999998</v>
+        <v>13954372.079999998</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1234496.1610714286</v>
+        <v>1495111.2942857142</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>10287468.008928571</v>
+        <v>12459260.785714285</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>102874.6800892857</v>
+        <v>124592.60785714284</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAE215-1815-4B1F-B596-43C3449A8EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D328CF3-5A88-43F8-8305-0062AF316065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="2760" windowWidth="12735" windowHeight="11730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="4" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,7 +2829,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="19">
+        <v>45926</v>
+      </c>
       <c r="D18" s="20" t="s">
         <v>68</v>
       </c>
@@ -2837,22 +2839,27 @@
       <c r="F18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>517944381</v>
+      </c>
       <c r="H18" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="21">
+        <f>1323144-55284.48</f>
+        <v>1267859.52</v>
+      </c>
       <c r="K18" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135842.09142857144</v>
       </c>
       <c r="L18" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1132017.4285714286</v>
       </c>
       <c r="M18" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11320.174285714285</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3198,19 +3205,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>13954372.079999998</v>
+        <v>15222231.599999998</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1495111.2942857142</v>
+        <v>1630953.3857142855</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>12459260.785714285</v>
+        <v>13591278.214285715</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>124592.60785714284</v>
+        <v>135912.78214285712</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
+++ b/GBDS SEPTEMBER FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS SEPTEMBER FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D328CF3-5A88-43F8-8305-0062AF316065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91EC964-A5E2-4367-AF42-107CC1849721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2871,9 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19">
+        <v>45927</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>68</v>
       </c>
@@ -2879,22 +2881,27 @@
       <c r="F19" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>517948038</v>
+      </c>
       <c r="H19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K19" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L19" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M19" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2906,7 +2913,9 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19">
+        <v>45927</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2914,22 +2923,27 @@
       <c r="F20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>517947574</v>
+      </c>
       <c r="H20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K20" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L20" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M20" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2941,7 +2955,9 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="19">
+        <v>45927</v>
+      </c>
       <c r="D21" s="20" t="s">
         <v>68</v>
       </c>
@@ -2949,22 +2965,27 @@
       <c r="F21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>517947435</v>
+      </c>
       <c r="H21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K21" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L21" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M21" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3205,19 +3226,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>15222231.599999998</v>
+        <v>19112862.48</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1630953.3857142855</v>
+        <v>2047806.6942857143</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>13591278.214285715</v>
+        <v>17065055.785714284</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>135912.78214285712</v>
+        <v>170650.55785714282</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
